--- a/general/countries_over_100k_pop.xlsx
+++ b/general/countries_over_100k_pop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>subregion</t>
+          <t>Subregion</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>Poplation</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>European Union Association</t>
         </is>
       </c>
     </row>
@@ -464,6 +469,11 @@
       <c r="C2" t="n">
         <v>2837743</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,6 +489,11 @@
       <c r="C3" t="n">
         <v>8917205</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,6 +509,11 @@
       <c r="C4" t="n">
         <v>9398861</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -509,6 +529,11 @@
       <c r="C5" t="n">
         <v>11555997</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -524,6 +549,11 @@
       <c r="C6" t="n">
         <v>3280815</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +569,11 @@
       <c r="C7" t="n">
         <v>6927288</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -554,6 +589,11 @@
       <c r="C8" t="n">
         <v>4047200</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -569,6 +609,11 @@
       <c r="C9" t="n">
         <v>1207361</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -584,6 +629,11 @@
       <c r="C10" t="n">
         <v>10698896</v>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -599,6 +649,11 @@
       <c r="C11" t="n">
         <v>5831404</v>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -614,6 +669,11 @@
       <c r="C12" t="n">
         <v>1331057</v>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -629,6 +689,11 @@
       <c r="C13" t="n">
         <v>5530719</v>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -644,6 +709,11 @@
       <c r="C14" t="n">
         <v>67391582</v>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -659,6 +729,11 @@
       <c r="C15" t="n">
         <v>83240525</v>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -674,6 +749,11 @@
       <c r="C16" t="n">
         <v>10715549</v>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -689,6 +769,11 @@
       <c r="C17" t="n">
         <v>9749763</v>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -704,6 +789,11 @@
       <c r="C18" t="n">
         <v>366425</v>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>European Free Trade Association (EFTA)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -719,6 +809,11 @@
       <c r="C19" t="n">
         <v>4994724</v>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -734,6 +829,11 @@
       <c r="C20" t="n">
         <v>59554023</v>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -749,6 +849,11 @@
       <c r="C21" t="n">
         <v>100800</v>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -764,6 +869,11 @@
       <c r="C22" t="n">
         <v>1775378</v>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -779,6 +889,11 @@
       <c r="C23" t="n">
         <v>1901548</v>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -794,6 +909,11 @@
       <c r="C24" t="n">
         <v>2794700</v>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -809,6 +929,11 @@
       <c r="C25" t="n">
         <v>632275</v>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -824,6 +949,11 @@
       <c r="C26" t="n">
         <v>525285</v>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -839,6 +969,11 @@
       <c r="C27" t="n">
         <v>2617820</v>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -854,6 +989,11 @@
       <c r="C28" t="n">
         <v>621718</v>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -869,6 +1009,11 @@
       <c r="C29" t="n">
         <v>16655799</v>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -884,6 +1029,11 @@
       <c r="C30" t="n">
         <v>2077132</v>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -899,6 +1049,11 @@
       <c r="C31" t="n">
         <v>5379475</v>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>European Free Trade Association (EFTA)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -914,6 +1069,11 @@
       <c r="C32" t="n">
         <v>37950802</v>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -929,6 +1089,11 @@
       <c r="C33" t="n">
         <v>10305564</v>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -944,6 +1109,11 @@
       <c r="C34" t="n">
         <v>19286123</v>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -959,6 +1129,11 @@
       <c r="C35" t="n">
         <v>144104080</v>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -974,6 +1149,11 @@
       <c r="C36" t="n">
         <v>6908224</v>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -989,6 +1169,11 @@
       <c r="C37" t="n">
         <v>5458827</v>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1004,6 +1189,11 @@
       <c r="C38" t="n">
         <v>2100126</v>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1019,6 +1209,11 @@
       <c r="C39" t="n">
         <v>47351567</v>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1034,6 +1229,11 @@
       <c r="C40" t="n">
         <v>10353442</v>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>European Union (EU)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1049,6 +1249,11 @@
       <c r="C41" t="n">
         <v>8654622</v>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>European Free Trade Association (EFTA)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1064,6 +1269,11 @@
       <c r="C42" t="n">
         <v>44134693</v>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1078,6 +1288,11 @@
       </c>
       <c r="C43" t="n">
         <v>67215293</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No Association</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/general/countries_over_100k_pop.xlsx
+++ b/general/countries_over_100k_pop.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Poplation</t>
+          <t>Population</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
